--- a/data_processing/2024/OES/data/20241031_bb_temp.xlsx
+++ b/data_processing/2024/OES/data/20241031_bb_temp.xlsx
@@ -475,10 +475,10 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>972.6844000959621</v>
+        <v>986.9403040497795</v>
       </c>
       <c r="E2" t="n">
-        <v>49.063324585337</v>
+        <v>42.19869520486407</v>
       </c>
     </row>
     <row r="3">
@@ -496,10 +496,10 @@
         <v>415</v>
       </c>
       <c r="D3" t="n">
-        <v>1062.068146916115</v>
+        <v>1017.743273621747</v>
       </c>
       <c r="E3" t="n">
-        <v>39.96982922087818</v>
+        <v>56.66797227972506</v>
       </c>
     </row>
     <row r="4">
@@ -517,10 +517,10 @@
         <v>628</v>
       </c>
       <c r="D4" t="n">
-        <v>1006.023087068736</v>
+        <v>1006.023092067389</v>
       </c>
       <c r="E4" t="n">
-        <v>36.66619057278695</v>
+        <v>36.66618942052969</v>
       </c>
     </row>
     <row r="5">
@@ -538,10 +538,10 @@
         <v>930</v>
       </c>
       <c r="D5" t="n">
-        <v>1015.545297381813</v>
+        <v>1015.545298442992</v>
       </c>
       <c r="E5" t="n">
-        <v>34.88390342756236</v>
+        <v>34.88390209473425</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>1232</v>
       </c>
       <c r="D6" t="n">
-        <v>949.658174638197</v>
+        <v>949.658191936323</v>
       </c>
       <c r="E6" t="n">
-        <v>38.08461999798794</v>
+        <v>38.08462020402658</v>
       </c>
     </row>
     <row r="7">
@@ -580,10 +580,10 @@
         <v>1517</v>
       </c>
       <c r="D7" t="n">
-        <v>891.6470275496915</v>
+        <v>891.6470167716543</v>
       </c>
       <c r="E7" t="n">
-        <v>35.15744692914132</v>
+        <v>35.15744800990626</v>
       </c>
     </row>
     <row r="8">
@@ -601,10 +601,10 @@
         <v>1835</v>
       </c>
       <c r="D8" t="n">
-        <v>810.921210766036</v>
+        <v>810.9917586714746</v>
       </c>
       <c r="E8" t="n">
-        <v>43.79932785424307</v>
+        <v>32.86897649024797</v>
       </c>
     </row>
     <row r="9">
@@ -622,10 +622,10 @@
         <v>2234</v>
       </c>
       <c r="D9" t="n">
-        <v>789.6113603551576</v>
+        <v>785.6577212796215</v>
       </c>
       <c r="E9" t="n">
-        <v>53.06991958428</v>
+        <v>37.65856322626473</v>
       </c>
     </row>
     <row r="10">
@@ -643,10 +643,10 @@
         <v>2726</v>
       </c>
       <c r="D10" t="n">
-        <v>794.2689523301195</v>
+        <v>763.8793746022002</v>
       </c>
       <c r="E10" t="n">
-        <v>51.56031512507616</v>
+        <v>36.10468816285743</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>3062</v>
       </c>
       <c r="D11" t="n">
-        <v>764.6553622345671</v>
+        <v>800.1147090077607</v>
       </c>
       <c r="E11" t="n">
-        <v>75.2843139866003</v>
+        <v>60.0532287107153</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         <v>4102</v>
       </c>
       <c r="D12" t="n">
-        <v>779.0370335206095</v>
+        <v>774.1322394471702</v>
       </c>
       <c r="E12" t="n">
-        <v>67.08515401123634</v>
+        <v>48.86318272892981</v>
       </c>
     </row>
     <row r="13">
@@ -706,10 +706,10 @@
         <v>4890</v>
       </c>
       <c r="D13" t="n">
-        <v>765.7942749083151</v>
+        <v>787.3113287520395</v>
       </c>
       <c r="E13" t="n">
-        <v>66.36378377366623</v>
+        <v>52.84780048904406</v>
       </c>
     </row>
   </sheetData>
